--- a/dados/banda som.xlsx
+++ b/dados/banda som.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1590 +483,2001 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>61.86</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188238136#searchVariation=MLB27685629&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=ceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188238136#searchVariation=MLB27685629&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=ab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>35.47</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:188238136#searchVariation=MLB25707531&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=ceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:188238136#searchVariation=MLB25707531&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=ab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>270</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:188238136#searchVariation=MLB27999036&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=ceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:188238136#searchVariation=MLB27999036&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=ab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Red Line - Somente O Controle Distancia Sem A Central </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>138</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1920700932-jfa-red-line-somente-o-controle-distancia-sem-a-central-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/combo-jfa-controle-distancia-k1200-br-voltimetro-v12-slim/p/MLB29588437?pdp_filters=seller_id:188238136#searchVariation=MLB29588437&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=ab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jfa Vs5hi - Medidor Bateria Digital Led Vermelho 12v Hivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Combo Jfa - Controle Distancia K1200 Ve + Sequenciador Vs5hi</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>179</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1153587439-jfa-vs5hi-medidor-bateria-digital-led-vermelho-12v-hivolt-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1213036641-combo-jfa-controle-distancia-k1200-ve-sequenciador-vs5hi-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>138</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jfa Red Line - Somente O Controle Distancia Sem A Central </t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/combo-jfa-controle-distancia-k1200-br-voltimetro-v12-slim/p/MLB29588437?pdp_filters=seller_id:188238136#searchVariation=MLB29588437&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=ceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1920700932-jfa-red-line-somente-o-controle-distancia-sem-a-central-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Kit C/ 05 Unidades Jfa K1200 ( Central + Controle) Completo</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>285</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2221481511-kit-c-05-unidades-jfa-k1200-central-controle-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2221481511-kit-c-05-unidades-jfa-k1200-central-controle-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle Distancia K1200 Ve + Sequenciador Vs5hi</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>179</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1213036641-combo-jfa-controle-distancia-k1200-ve-sequenciador-vs5hi-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:188238136#searchVariation=MLB28798841&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=ab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>69.98999999999999</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Jfa Vs5hi - Medidor Bateria Digital Led Vermelho 12v Hivolt</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:188238136#searchVariation=MLB28798841&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=ceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1153587439-jfa-vs5hi-medidor-bateria-digital-led-vermelho-12v-hivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Extensor Distancia Jfa K1200 - Somente Controle Sem Central</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Capa Controle Jfa K1200 - Atenção: Somente A Capa Preto</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>48.99</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1194705288-extensor-distancia-jfa-k1200-somente-controle-sem-central-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2065154427-capa-controle-jfa-k1200-atenco-somente-a-capa-preto-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jfa K1200 Completo ( Central + Controle Distancia ) Cores</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Combo Jfa - Controle Acgua K1200 Preto + Sequenciador Vs5hi</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E12" t="n">
+        <v>149</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152916401-jfa-k1200-completo-central-controle-distancia-cores-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2923547844-combo-jfa-controle-acgua-k1200-preto-sequenciador-vs5hi-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle Acgua K1200 Preto + Sequenciador Vs5hi</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Extensor Distancia Jfa K1200 - Somente Controle Sem Central</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>149</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E13" t="n">
+        <v>48.99</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2923547844-combo-jfa-controle-acgua-k1200-preto-sequenciador-vs5hi-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1194705288-extensor-distancia-jfa-k1200-somente-controle-sem-central-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Capa Controle Jfa K1200 - Atenção: Somente A Capa Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Jfa K1200 Completo ( Central + Controle Distancia ) Cores</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>34.99</v>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2065154427-capa-controle-jfa-k1200-atenco-somente-a-capa-preto-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1152916401-jfa-k1200-completo-central-controle-distancia-cores-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Jfa K1200 Acgua Preto - Somente Controle Sem Central</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>149</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E15" t="n">
+        <v>58.99</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1159018637-combo-jfa-controle-distancia-k1200-br-voltimetro-v12-slim-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3131122250-jfa-k1200-acgua-preto-somente-controle-sem-central-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jfa K1200 Acgua Preto - Somente Controle Sem Central</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>58.99</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Jfa 120 A Fonte Carregador Bateria Digital Carga Inteligente</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>636.49</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3131122250-jfa-k1200-acgua-preto-somente-controle-sem-central-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1350922325-jfa-120-a-fonte-carregador-bateria-digital-carga-inteligente-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jfa 200a - Fonte Carregador Bateria Estabilizada Inteligente</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>811</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sequenciador Comando Remoto Jfa Vs5hi C/ Display Vermelho</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>57.15</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1256339162-jfa-200a-fonte-carregador-bateria-estabilizada-inteligente-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1185807650-sequenciador-comando-remoto-jfa-vs5hi-c-display-vermelho-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo + Barato Brasil</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>54.82</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Combo Jfa - Controle Jfa Red Line + Sequênciador Vs5hi</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>165.77</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152920468-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1798927380-combo-jfa-controle-jfa-red-line-sequnciador-vs5hi-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sequenciador Comando Remoto Jfa Vs5hi C/ Display Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Jfa K1200 ( Central + Controle Distancia ) Completo Testado</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>55.25</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1185807650-sequenciador-comando-remoto-jfa-vs5hi-c-display-vermelho-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1147063031-jfa-k1200-central-controle-distancia-completo-testado-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jfa K1200 ( Central + Controle Distancia ) Completo Testado</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>55.25</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Kit 04 Controles Remoto Jfa K1200 Acqua - 2 Preto + 2 Branco</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>254.99</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1147063031-jfa-k1200-central-controle-distancia-completo-testado-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660722939-kit-04-controles-remoto-jfa-k1200-acqua-2-preto-2-branco-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kit 04 Controles Remoto Jfa K1200 Acqua - 2 Preto + 2 Branco</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>254.99</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kit C /10 Unidades Jfa K600 Controle Distancia 12x S/ Juros</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>720</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660722939-kit-04-controles-remoto-jfa-k1200-acqua-2-preto-2-branco-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1256325591-kit-c-10-unidades-jfa-k600-controle-distancia-12x-s-juros-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kit C /10 Unidades Jfa K600 Controle Distancia 12x S/ Juros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>720</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Link P/ 03 Kits Controle Distancia Jfa K1200 Red Line Wr P2</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>259</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1256325591-kit-c-10-unidades-jfa-k600-controle-distancia-12x-s-juros-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1675001808-link-p-03-kits-controle-distancia-jfa-k1200-red-line-wr-p2-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Link P/ 03 Kits Controle Distancia Jfa K1200 Red Line Wr P2</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>259</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Kit Jfa C/ Controle Distancia K1200 Br + Sequenciador Vs5hi</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1675001808-link-p-03-kits-controle-distancia-jfa-k1200-red-line-wr-p2-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1239683463-kit-jfa-c-controle-distancia-k1200-br-sequenciador-vs5hi-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="E24" t="n">
         <v>199</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1154697200-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1154697200-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kit Jfa C/ Controle Distancia K1200 Br + Sequenciador Vs5hi</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E25" t="n">
+        <v>32.3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1239683463-kit-jfa-c-controle-distancia-k1200-br-sequenciador-vs5hi-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1440238835-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jfa V12 - Voltimetro Medidor Bateria Digital Led Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Combo Jfa Controle Distancia K1200 Pr + Voltimetro V12 Slim</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>169.99</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1224908002-jfa-v12-voltimetro-medidor-bateria-digital-led-vermelho-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1159018111-combo-jfa-controle-distancia-k1200-pr-voltimetro-v12-slim-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="E27" t="n">
         <v>56.05</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152918925-kit-controle-longa-distncia-jfa-k1200-preto-barato-brasil-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1152918925-kit-controle-longa-distncia-jfa-k1200-preto-barato-brasil-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>02 Kits Jfa K1200 - Branco E Azul - Controle Longa Distancia</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>179</v>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="n">
+        <v>169</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1154697535-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1172418020-02-kits-jfa-k1200-branco-e-azul-controle-longa-distancia-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>02 Kits Jfa K1200 - Branco E Azul - Controle Longa Distancia</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>169</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Jfa 36 A Slim - Fonte Carregador Bateria Sistema Inteligente</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>402.79</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1172418020-02-kits-jfa-k1200-branco-e-azul-controle-longa-distancia-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1167027734-jfa-36-a-slim-fonte-carregador-bateria-sistema-inteligente-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jfa K1200 - Venda Do Controle De Mão Sem Central - Reposição</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E30" t="n">
+        <v>179</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1369384767-jfa-k1200-venda-do-controle-de-mo-sem-central-reposico-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1154697535-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Novidade Ml - Controle Distancia Jfa K1200 Red Line Wr P2</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>78.90000000000001</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Jfa K1200 - Venda Do Controle De Mão Sem Central - Reposição</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1361839065-novidade-ml-controle-distancia-jfa-k1200-red-line-wr-p2-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1369384767-jfa-k1200-venda-do-controle-de-mo-sem-central-reposico-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jfa 200a - Fonte Carregador Bateria Estabilizada Inteligente</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>889.91</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10 Controles Comando Distancia Jfa K600 - Central + Controle</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>690</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1256337225-jfa-200a-fonte-carregador-bateria-estabilizada-inteligente-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1361838721-10-controles-comando-distancia-jfa-k600-central-controle-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Acgua Branco  - Controle Distancia Jfa K1200 Resistente Agua</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>93.98999999999999</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Jfa K600 - Controle Longa Distancia - Intem Abaixo</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2747826382-acgua-branco-controle-distancia-jfa-k1200-resistente-agua-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1742433623-jfa-k600-controle-longa-distancia-intem-abaixo-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10 Controles Comando Distancia Jfa K600 - Central + Controle</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>690</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Kit C/ 10 Controles Remoto Longa Distância Jfa K1200 Preto</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>650</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1361838721-10-controles-comando-distancia-jfa-k600-central-controle-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4601935518-kit-c-10-controles-remoto-longa-distncia-jfa-k1200-preto-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Acgua Branco  - Controle Distancia Jfa K1200 Resistente Agua</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Jfa K1200 Vermelho Controle Longa Distancia + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2747795862-acgua-branco-controle-distancia-jfa-k1200-resistente-agua-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1158847048-jfa-k1200-vermelho-controle-longa-distancia-barato-brasil-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jfa K1200 Branco - Controle Longa Distancia + Barato Brasil</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>93.91</v>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="n">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1356444534-jfa-k1200-branco-controle-longa-distancia-barato-brasil-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1158871477-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia - Intem Abaixo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Jfa K600 - Controle Longa Distancia Completo 12x S/ Juros</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="n">
+        <v>77</v>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1742433623-jfa-k600-controle-longa-distancia-intem-abaixo-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1152928649-jfa-k600-controle-longa-distancia-completo-12x-s-juros-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kit C/ 10 Controles Remoto Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>650</v>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="n">
+        <v>179</v>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4601935518-kit-c-10-controles-remoto-longa-distncia-jfa-k1200-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1158876809-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jfa K1200 Vermelho Controle Longa Distancia + Barato Brasil</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>71.48999999999999</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>08 Controle Jfa K600 - Controle Longa Distancia Comple</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>550</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1158847048-jfa-k1200-vermelho-controle-longa-distancia-barato-brasil-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1272479594-08-controle-jfa-k600-controle-longa-distancia-comple-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Kit C/ 10 Unidades Jfa K1200 ( Central + Controle) Completo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>71.48999999999999</v>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="n">
+        <v>799</v>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1158871477-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1273340959-kit-c-10-unidades-jfa-k1200-central-controle-completo-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo 12x S/ Juros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>77</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Jfa V12 - Voltimetro Medidor Bateria Digital Led Vermelho</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152928649-jfa-k600-controle-longa-distancia-completo-12x-s-juros-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1224908002-jfa-v12-voltimetro-medidor-bateria-digital-led-vermelho-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>179</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Apenas Central P/ Jfa K1200 Red Line Wr P2</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>59.99</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1158876809-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1722189734-apenas-central-p-jfa-k1200-red-line-wr-p2-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>08 Controle Jfa K600 - Controle Longa Distancia Comple</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>550</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Combo Jfa Controle Distancia K1200 Ve + Voltimetro V12 Slim </t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>179</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1272479594-08-controle-jfa-k600-controle-longa-distancia-comple-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1159003355-combo-jfa-controle-distancia-k1200-ve-voltimetro-v12-slim-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kit C/ 10 Unidades Jfa K1200 ( Central + Controle) Completo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>799</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Jfa 200a - Fonte Carregador Bateria Estabilizada Inteligente</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>811</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1273340959-kit-c-10-unidades-jfa-k1200-central-controle-completo-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1256339162-jfa-200a-fonte-carregador-bateria-estabilizada-inteligente-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle Distancia K1200 Br + Sequenciador Vs5hi</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>159</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Jfa 120 Storm - Fonte Carregador 12v Digital Carga Flutuante</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>636.49</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1159018797-combo-jfa-controle-distancia-k1200-br-sequenciador-vs5hi-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3420366778-jfa-120-storm-fonte-carregador-12v-digital-carga-flutuante-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Jfa 120 Storm - Fonte Carregador 12v Digital Carga Flutuante</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>636.49</v>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Kit Longa Distancia Jfa K1200 (controle + Central) Testados</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>57</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3420366778-jfa-120-storm-fonte-carregador-12v-digital-carga-flutuante-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Combo Jfa Controle Distancia K1200 Ve + Voltimetro V12 Slim </t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>179</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1159003355-combo-jfa-controle-distancia-k1200-ve-voltimetro-v12-slim-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dceace92b-5fa1-4585-b720-dbd72c493da8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1254697439-kit-longa-distancia-jfa-k1200-controle-central-testados-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
         </is>
       </c>
     </row>

--- a/dados/banda som.xlsx
+++ b/dados/banda som.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Kit 04 Controles Remoto Jfa K1200 Acqua - 2 Preto + 2 Branco</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -502,11 +502,11 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>61.86</v>
+        <v>254.99</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188238136#searchVariation=MLB27685629&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=ab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3660722939-kit-04-controles-remoto-jfa-k1200-acqua-2-preto-2-branco-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Jfa Vs5hi - Medidor Bateria Digital Led Vermelho 12v Hivolt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>55.5</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
@@ -562,14 +562,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:188238136#searchVariation=MLB25707531&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=ab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1153587439-jfa-vs5hi-medidor-bateria-digital-led-vermelho-12v-hivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>270</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -607,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:188238136#searchVariation=MLB27999036&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=ab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:188238136#searchVariation=MLB28798841&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,22 +624,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>138</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>35.47</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -652,14 +648,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/combo-jfa-controle-distancia-k1200-br-voltimetro-v12-slim/p/MLB29588437?pdp_filters=seller_id:188238136#searchVariation=MLB29588437&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=ab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:188238136#searchVariation=MLB25707531&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,7 +665,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle Distancia K1200 Ve + Sequenciador Vs5hi</t>
+          <t>Kit C/ 05 Unidades Jfa K1200 ( Central + Controle) Completo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -678,7 +674,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -692,19 +688,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1213036641-combo-jfa-controle-distancia-k1200-ve-sequenciador-vs5hi-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2221481511-kit-c-05-unidades-jfa-k1200-central-controle-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,18 +710,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Red Line - Somente O Controle Distancia Sem A Central </t>
+          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -738,14 +738,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1920700932-jfa-red-line-somente-o-controle-distancia-sem-a-central-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:188238136#searchVariation=MLB28557249&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kit C/ 05 Unidades Jfa K1200 ( Central + Controle) Completo</t>
+          <t>Jfa K1200 ( Central + Controle Distancia ) Completo Testado</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -764,11 +764,11 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>285</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -778,19 +778,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2221481511-kit-c-05-unidades-jfa-k1200-central-controle-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1147063031-jfa-k1200-central-controle-distancia-completo-testado-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -800,16 +800,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
+          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>69.98999999999999</v>
+        <v>138</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -828,14 +828,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:188238136#searchVariation=MLB28798841&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=ab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://www.mercadolivre.com.br/combo-jfa-controle-distancia-k1200-br-voltimetro-v12-slim/p/MLB29588437?pdp_filters=seller_id:188238136#searchVariation=MLB29588437&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jfa Vs5hi - Medidor Bateria Digital Led Vermelho 12v Hivolt</t>
+          <t xml:space="preserve">Jfa Red Line - Somente O Controle Distancia Sem A Central </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.95</v>
+        <v>57.5</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
@@ -869,14 +869,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1153587439-jfa-vs5hi-medidor-bateria-digital-led-vermelho-12v-hivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1920700932-jfa-red-line-somente-o-controle-distancia-sem-a-central-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -886,22 +886,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Capa Controle Jfa K1200 - Atenção: Somente A Capa Preto</t>
+          <t>Combo Jfa - Controle Jfa Red Line + Sequênciador Vs5hi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.99</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>174.5</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -914,14 +910,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2065154427-capa-controle-jfa-k1200-atenco-somente-a-capa-preto-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1798927380-combo-jfa-controle-jfa-red-line-sequnciador-vs5hi-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -931,16 +927,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle Acgua K1200 Preto + Sequenciador Vs5hi</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -959,14 +955,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2923547844-combo-jfa-controle-acgua-k1200-preto-sequenciador-vs5hi-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:188238136#searchVariation=MLB27999036&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -976,22 +972,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Extensor Distancia Jfa K1200 - Somente Controle Sem Central</t>
+          <t>Sequenciador Comando Remoto Jfa Vs5hi C/ Display Vermelho</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>48.99</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>63.5</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -999,19 +991,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1194705288-extensor-distancia-jfa-k1200-somente-controle-sem-central-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1185807650-sequenciador-comando-remoto-jfa-vs5hi-c-display-vermelho-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1021,7 +1013,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Jfa K1200 Completo ( Central + Controle Distancia ) Cores</t>
+          <t>Combo Jfa - Controle Distancia K1200 Ve + Sequenciador Vs5hi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1030,11 +1022,11 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>55.25</v>
+        <v>179</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1044,19 +1036,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152916401-jfa-k1200-completo-central-controle-distancia-cores-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1213036641-combo-jfa-controle-distancia-k1200-ve-sequenciador-vs5hi-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1066,16 +1058,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jfa K1200 Acgua Preto - Somente Controle Sem Central</t>
+          <t>Jfa 120 A Fonte Carregador Bateria Digital Carga Inteligente</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>58.99</v>
+        <v>636.49</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1094,14 +1086,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3131122250-jfa-k1200-acgua-preto-somente-controle-sem-central-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1350922325-jfa-120-a-fonte-carregador-bateria-digital-carga-inteligente-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1111,20 +1103,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jfa 120 A Fonte Carregador Bateria Digital Carga Inteligente</t>
+          <t>Combo Jfa - Controle Acgua K1200 Preto + Sequenciador Vs5hi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>636.49</v>
+        <v>149</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1134,19 +1126,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1350922325-jfa-120-a-fonte-carregador-bateria-digital-carga-inteligente-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2923547844-combo-jfa-controle-acgua-k1200-preto-sequenciador-vs5hi-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1156,18 +1148,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sequenciador Comando Remoto Jfa Vs5hi C/ Display Vermelho</t>
+          <t>Jfa K1200 Acgua Preto - Somente Controle Sem Central</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>58.99</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1175,19 +1171,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1185807650-sequenciador-comando-remoto-jfa-vs5hi-c-display-vermelho-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3131122250-jfa-k1200-acgua-preto-somente-controle-sem-central-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1197,18 +1193,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle Jfa Red Line + Sequênciador Vs5hi</t>
+          <t>Extensor Distancia Jfa K1200 - Somente Controle Sem Central</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>165.77</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
+        <v>48.99</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1216,19 +1216,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1798927380-combo-jfa-controle-jfa-red-line-sequnciador-vs5hi-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1194705288-extensor-distancia-jfa-k1200-somente-controle-sem-central-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jfa K1200 ( Central + Controle Distancia ) Completo Testado</t>
+          <t>Jfa K1200 Completo ( Central + Controle Distancia ) Cores</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1247,11 +1247,11 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>55.25</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1261,19 +1261,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1147063031-jfa-k1200-central-controle-distancia-completo-testado-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1152916401-jfa-k1200-completo-central-controle-distancia-cores-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1283,20 +1283,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Kit 04 Controles Remoto Jfa K1200 Acqua - 2 Preto + 2 Branco</t>
+          <t>Capa Controle Jfa K1200 - Atenção: Somente A Capa Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>254.99</v>
+        <v>34.99</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1311,14 +1311,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660722939-kit-04-controles-remoto-jfa-k1200-acqua-2-preto-2-branco-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2065154427-capa-controle-jfa-k1200-atenco-somente-a-capa-preto-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1328,16 +1328,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kit C /10 Unidades Jfa K600 Controle Distancia 12x S/ Juros</t>
+          <t>Link P/ 03 Kits Controle Distancia Jfa K1200 Red Line Wr P2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>720</v>
+        <v>259</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1356,14 +1356,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1256325591-kit-c-10-unidades-jfa-k600-controle-distancia-12x-s-juros-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1675001808-link-p-03-kits-controle-distancia-jfa-k1200-red-line-wr-p2-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1373,16 +1373,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Link P/ 03 Kits Controle Distancia Jfa K1200 Red Line Wr P2</t>
+          <t>Kit C /10 Unidades Jfa K600 Controle Distancia 12x S/ Juros</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>259</v>
+        <v>720</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1401,14 +1401,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1675001808-link-p-03-kits-controle-distancia-jfa-k1200-red-line-wr-p2-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1256325591-kit-c-10-unidades-jfa-k600-controle-distancia-12x-s-juros-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kit Jfa C/ Controle Distancia K1200 Br + Sequenciador Vs5hi</t>
+          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>199.1</v>
+        <v>78</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1446,14 +1446,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1239683463-kit-jfa-c-controle-distancia-k1200-br-sequenciador-vs5hi-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1152918925-kit-controle-longa-distncia-jfa-k1200-preto-barato-brasil-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
+          <t>02 Kits Jfa K1200 - Branco E Azul - Controle Longa Distancia</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1486,19 +1486,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1154697200-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1172418020-02-kits-jfa-k1200-branco-e-azul-controle-longa-distancia-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
+          <t>Combo Jfa Controle Distancia K1200 Pr + Voltimetro V12 Slim</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1517,11 +1517,11 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.3</v>
+        <v>169.99</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1536,14 +1536,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1440238835-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1159018111-combo-jfa-controle-distancia-k1200-pr-voltimetro-v12-slim-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Combo Jfa Controle Distancia K1200 Pr + Voltimetro V12 Slim</t>
+          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>169.99</v>
+        <v>199</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1576,19 +1576,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1159018111-combo-jfa-controle-distancia-k1200-pr-voltimetro-v12-slim-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1154697200-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
+          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>56.05</v>
+        <v>48</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1621,19 +1621,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152918925-kit-controle-longa-distncia-jfa-k1200-preto-barato-brasil-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1440238835-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>02 Kits Jfa K1200 - Branco E Azul - Controle Longa Distancia</t>
+          <t>Kit Jfa C/ Controle Distancia K1200 Br + Sequenciador Vs5hi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>169</v>
+        <v>199.1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1172418020-02-kits-jfa-k1200-branco-e-azul-controle-longa-distancia-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1239683463-kit-jfa-c-controle-distancia-k1200-br-sequenciador-vs5hi-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1688,20 +1688,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jfa 36 A Slim - Fonte Carregador Bateria Sistema Inteligente</t>
+          <t>Jfa K1200 Vermelho Controle Longa Distancia + Barato Brasil</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>402.79</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1716,14 +1716,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1167027734-jfa-36-a-slim-fonte-carregador-bateria-sistema-inteligente-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1158847048-jfa-k1200-vermelho-controle-longa-distancia-barato-brasil-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1733,16 +1733,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
+          <t>10 Controles Comando Distancia Jfa K600 - Central + Controle</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>179</v>
+        <v>690</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1761,14 +1761,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1154697535-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1361838721-10-controles-comando-distancia-jfa-k600-central-controle-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1806,14 +1806,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1369384767-jfa-k1200-venda-do-controle-de-mo-sem-central-reposico-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1369384767-jfa-k1200-venda-do-controle-de-mo-sem-central-reposico-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1823,20 +1823,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10 Controles Comando Distancia Jfa K600 - Central + Controle</t>
+          <t>Jfa 36 A Slim - Fonte Carregador Bateria Sistema Inteligente</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>690</v>
+        <v>402.79</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1851,14 +1851,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1361838721-10-controles-comando-distancia-jfa-k600-central-controle-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1167027734-jfa-36-a-slim-fonte-carregador-bateria-sistema-inteligente-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1868,16 +1868,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia - Intem Abaixo</t>
+          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>73.90000000000001</v>
+        <v>179</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1896,14 +1896,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1742433623-jfa-k600-controle-longa-distancia-intem-abaixo-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1154697535-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kit C/ 10 Controles Remoto Longa Distância Jfa K1200 Preto</t>
+          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>650</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1941,14 +1941,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4601935518-kit-c-10-controles-remoto-longa-distncia-jfa-k1200-preto-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1158871477-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Jfa K1200 Vermelho Controle Longa Distancia + Barato Brasil</t>
+          <t>Kit C/ 10 Controles Remoto Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>71.48999999999999</v>
+        <v>650</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1158847048-jfa-k1200-vermelho-controle-longa-distancia-barato-brasil-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4601935518-kit-c-10-controles-remoto-longa-distncia-jfa-k1200-preto-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2003,16 +2003,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
+          <t>Jfa K600 - Controle Longa Distancia - Intem Abaixo</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>71.48999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2031,14 +2031,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1158871477-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1742433623-jfa-k600-controle-longa-distancia-intem-abaixo-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2048,16 +2048,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo 12x S/ Juros</t>
+          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2071,19 +2071,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152928649-jfa-k600-controle-longa-distancia-completo-12x-s-juros-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1158876809-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2093,16 +2093,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
+          <t>Jfa K600 - Controle Longa Distancia Completo 12x S/ Juros</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2116,19 +2116,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1158876809-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1152928649-jfa-k600-controle-longa-distancia-completo-12x-s-juros-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2138,16 +2138,16 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>08 Controle Jfa K600 - Controle Longa Distancia Comple</t>
+          <t>Jfa 200a - Fonte Carregador Bateria Estabilizada Inteligente</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>550</v>
+        <v>811</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2166,14 +2166,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1272479594-08-controle-jfa-k600-controle-longa-distancia-comple-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1256339162-jfa-200a-fonte-carregador-bateria-estabilizada-inteligente-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Kit C/ 10 Unidades Jfa K1200 ( Central + Controle) Completo</t>
+          <t xml:space="preserve">Combo Jfa Controle Distancia K1200 Ve + Voltimetro V12 Slim </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>799</v>
+        <v>179</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2206,19 +2206,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1273340959-kit-c-10-unidades-jfa-k1200-central-controle-completo-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1159003355-combo-jfa-controle-distancia-k1200-ve-voltimetro-v12-slim-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2228,18 +2228,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Jfa V12 - Voltimetro Medidor Bateria Digital Led Vermelho</t>
+          <t>Jfa 120 Storm - Fonte Carregador 12v Digital Carga Flutuante</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
+        <v>636.49</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2252,14 +2256,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1224908002-jfa-v12-voltimetro-medidor-bateria-digital-led-vermelho-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3420366778-jfa-120-storm-fonte-carregador-12v-digital-carga-flutuante-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2269,20 +2273,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Apenas Central P/ Jfa K1200 Red Line Wr P2</t>
+          <t>Kit C/ 10 Unidades Jfa K1200 ( Central + Controle) Completo</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>59.99</v>
+        <v>799</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2297,14 +2301,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1722189734-apenas-central-p-jfa-k1200-red-line-wr-p2-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1273340959-kit-c-10-unidades-jfa-k1200-central-controle-completo-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2314,22 +2318,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Combo Jfa Controle Distancia K1200 Ve + Voltimetro V12 Slim </t>
+          <t>Jfa V12 - Voltimetro Medidor Bateria Digital Led Vermelho</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>179</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>59.99</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2342,14 +2342,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1159003355-combo-jfa-controle-distancia-k1200-ve-voltimetro-v12-slim-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1224908002-jfa-v12-voltimetro-medidor-bateria-digital-led-vermelho-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2359,16 +2359,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Jfa 200a - Fonte Carregador Bateria Estabilizada Inteligente</t>
+          <t>Kit C/ 02 Capas Controle Jfa K1200 - 1 Vermelha + 1 Preta</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>811</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2387,14 +2387,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1256339162-jfa-200a-fonte-carregador-bateria-estabilizada-inteligente-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2067187135-kit-c-02-capas-controle-jfa-k1200-1-vermelha-1-preta-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2404,20 +2404,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Jfa 120 Storm - Fonte Carregador 12v Digital Carga Flutuante</t>
+          <t>08 Controle Jfa K600 - Controle Longa Distancia Comple</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>636.49</v>
+        <v>550</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2427,19 +2427,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3420366778-jfa-120-storm-fonte-carregador-12v-digital-carga-flutuante-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1272479594-08-controle-jfa-k600-controle-longa-distancia-comple-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2458,26 +2458,877 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>57</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1254697439-kit-longa-distancia-jfa-k1200-controle-central-testados-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Central Jfa K1200 S/ Controle Distancia + Voltímetro Vs5hi</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>124</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1988690033-central-jfa-k1200-s-controle-distancia-voltimetro-vs5hi-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>49</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1254697439-kit-longa-distancia-jfa-k1200-controle-central-testados-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dab29914b-52c4-4319-a669-57bff26d8e4d</t>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1533484989-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Jfa K600 - Controle Longa Distancia Completo + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1152920468-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Combo Jfa - Controle K1200 Acgua Preto + Voltímetro Vs5hi</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>189</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3239502071-combo-jfa-controle-k1200-acgua-preto-voltimetro-vs5hi-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Somente A Central P/ Controle Distancia Jfa Red Line Wr P2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>69</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1859845998-somente-a-central-p-controle-distancia-jfa-red-line-wr-p2-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Acgua Preto  - Controle Distancia Jfa K1200 Resistente Agua</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>66.63</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2747832913-acgua-preto-controle-distancia-jfa-k1200-resistente-agua-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Combo Jfa - Controle Distancia K1200 Pr + Sequenciador Vs5hi</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>174</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1159011150-combo-jfa-controle-distancia-k1200-pr-sequenciador-vs5hi-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Jfa 200a - Fonte Carregador Bateria Estabilizada Inteligente</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>889.91</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1256337225-jfa-200a-fonte-carregador-bateria-estabilizada-inteligente-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Processador C/ Bluetooth Px2 + Controle Distancia Jfa K1200</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>499</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1194695868-processador-c-bluetooth-px2-controle-distancia-jfa-k1200-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Apenas Central P/ Jfa K1200 Red Line Wr P2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1722189734-apenas-central-p-jfa-k1200-red-line-wr-p2-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Kit C/ 10 Controles Remoto Distancia Jfa K1200 Acqua Preto</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>649</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2747845461-kit-c-10-controles-remoto-distancia-jfa-k1200-acqua-preto-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Jfa V12 - Voltimetro Medidor Bateria Digital Led Vermelho</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>58.99</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1224911921-jfa-v12-voltimetro-medidor-bateria-digital-led-vermelho-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Processador C/ Bluetooth Px2 + Controle Distancia Jfa K1200</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>499</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1194702370-processador-c-bluetooth-px2-controle-distancia-jfa-k1200-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Jfa 60 A Slim Sci Fonte Carregador Bateria 12v Inteligente</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>434</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1153596690-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Novidade Ml - Controle Distancia Jfa K1200 Red Line Wr P2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1361839065-novidade-ml-controle-distancia-jfa-k1200-red-line-wr-p2-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Jfa 120 A Fonte Carregador Bateria Digital Carga Inteligente</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>629</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1177534831-jfa-120-a-fonte-carregador-bateria-digital-carga-inteligente-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Central S/ Controle Distancia P/ Jfa K600 - Não Tem Contole</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>49</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1402659031-central-s-controle-distancia-p-jfa-k600-no-tem-contole-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>54</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1360699917-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>38</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4588206548-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
         </is>
       </c>
     </row>

--- a/dados/banda som.xlsx
+++ b/dados/banda som.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kit 04 Controles Remoto Jfa K1200 Acqua - 2 Preto + 2 Branco</t>
+          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>254.99</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3660722939-kit-04-controles-remoto-jfa-k1200-acqua-2-preto-2-branco-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:188238136#wid=MLB4440524894&amp;sid=search&amp;searchVariation=MLB28798841&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,18 +538,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jfa Vs5hi - Medidor Bateria Digital Led Vermelho 12v Hivolt</t>
+          <t>Capa Controle Jfa K1200 - Atenção: Somente A Capa Preto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>33.24</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -562,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1153587439-jfa-vs5hi-medidor-bateria-digital-led-vermelho-12v-hivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2065154427-capa-controle-jfa-k1200-atenco-somente-a-capa-preto-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 K 600 K-600 Completo</t>
+          <t>Acgua Preto  - Controle Distancia Jfa K1200 Resistente Agua</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>69.98999999999999</v>
+        <v>63.3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -607,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-k-600-k-600-completo/p/MLB28798841?pdp_filters=seller_id:188238136#searchVariation=MLB28798841&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2747832913-acgua-preto-controle-distancia-jfa-k1200-resistente-agua-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,18 +628,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Apenas Central P/ Jfa K1200 Red Line Wr P2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35.47</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>50.99</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -648,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:188238136#searchVariation=MLB25707531&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1722189734-apenas-central-p-jfa-k1200-red-line-wr-p2-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -665,22 +673,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kit C/ 05 Unidades Jfa K1200 ( Central + Controle) Completo</t>
+          <t>Combo Jfa - Controle Jfa Red Line + Sequênciador Vs5hi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>285</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>165.77</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -693,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2221481511-kit-c-05-unidades-jfa-k1200-central-controle-completo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1798927380-combo-jfa-controle-jfa-red-line-sequnciador-vs5hi-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -710,22 +714,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Sequenciador Comando Remoto Jfa Vs5hi C/ Display Vermelho</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>60.32</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -738,14 +738,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:188238136#searchVariation=MLB28557249&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1185807650-sequenciador-comando-remoto-jfa-vs5hi-c-display-vermelho-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jfa K1200 ( Central + Controle Distancia ) Completo Testado</t>
+          <t>Combo Jfa Controle Distancia K1200 Pr + Voltimetro V12 Slim</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -764,11 +764,11 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>64.98999999999999</v>
+        <v>161.49</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -778,19 +778,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1147063031-jfa-k1200-central-controle-distancia-completo-testado-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1159018111-combo-jfa-controle-distancia-k1200-pr-voltimetro-v12-slim-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
+          <t>Combo Jfa - Controle Distancia K1200 Br + Sequenciador Vs5hi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>138</v>
+        <v>151.05</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -823,19 +823,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/combo-jfa-controle-distancia-k1200-br-voltimetro-v12-slim/p/MLB29588437?pdp_filters=seller_id:188238136#searchVariation=MLB29588437&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1159018797-combo-jfa-controle-distancia-k1200-br-sequenciador-vs5hi-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -845,18 +845,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa Red Line - Somente O Controle Distancia Sem A Central </t>
+          <t>Jfa K1200 Acgua Branco - Somente Controle Sem Central</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>56.04</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -864,19 +868,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1920700932-jfa-red-line-somente-o-controle-distancia-sem-a-central-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3891167764-jfa-k1200-acgua-branco-somente-controle-sem-central-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -886,18 +890,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle Jfa Red Line + Sequênciador Vs5hi</t>
+          <t>Combo Jfa - Controle Distancia K1200 Ve + Sequenciador Vs5hi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>174.5</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>170.05</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -905,19 +913,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1798927380-combo-jfa-controle-jfa-red-line-sequnciador-vs5hi-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1213036641-combo-jfa-controle-distancia-k1200-ve-sequenciador-vs5hi-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -927,22 +935,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>Jfa Vs5hi - Medidor Bateria Digital Led Vermelho 12v Hivolt</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>270</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>52.72</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -955,14 +959,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:188238136#searchVariation=MLB27999036&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1153587439-jfa-vs5hi-medidor-bateria-digital-led-vermelho-12v-hivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -972,18 +976,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sequenciador Comando Remoto Jfa Vs5hi C/ Display Vermelho</t>
+          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>31.35</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -996,14 +1004,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1185807650-sequenciador-comando-remoto-jfa-vs5hi-c-display-vermelho-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1440238835-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1013,7 +1021,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle Distancia K1200 Ve + Sequenciador Vs5hi</t>
+          <t>Combo Jfa - Controle Acgua K1200 Preto + Sequenciador Vs5hi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1022,7 +1030,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>179</v>
+        <v>141.55</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1036,19 +1044,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1213036641-combo-jfa-controle-distancia-k1200-ve-sequenciador-vs5hi-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2923547844-combo-jfa-controle-acgua-k1200-preto-sequenciador-vs5hi-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1058,20 +1066,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jfa 120 A Fonte Carregador Bateria Digital Carga Inteligente</t>
+          <t>Kit C/ 05 Unidades Jfa K1200 ( Central + Controle) Completo</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>636.49</v>
+        <v>270.75</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1081,19 +1089,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1350922325-jfa-120-a-fonte-carregador-bateria-digital-carga-inteligente-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2221481511-kit-c-05-unidades-jfa-k1200-central-controle-completo-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1103,20 +1111,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle Acgua K1200 Preto + Sequenciador Vs5hi</t>
+          <t>Jfa 200a - Fonte Carregador Bateria Estabilizada Inteligente</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>149</v>
+        <v>770.45</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1131,14 +1139,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2923547844-combo-jfa-controle-acgua-k1200-preto-sequenciador-vs5hi-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1256339162-jfa-200a-fonte-carregador-bateria-estabilizada-inteligente-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1157,7 +1165,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>58.99</v>
+        <v>56.04</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1176,14 +1184,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3131122250-jfa-k1200-acgua-preto-somente-controle-sem-central-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3131122250-jfa-k1200-acgua-preto-somente-controle-sem-central-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1193,16 +1201,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Extensor Distancia Jfa K1200 - Somente Controle Sem Central</t>
+          <t>Jfa K600 - Controle Longa Distancia Completo + Barato Brasil</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>48.99</v>
+        <v>61.27</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1216,19 +1224,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1194705288-extensor-distancia-jfa-k1200-somente-controle-sem-central-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1152920468-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1238,16 +1246,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jfa K1200 Completo ( Central + Controle Distancia ) Cores</t>
+          <t>Link P/ 03 Kits Controle Distancia Jfa K1200 Red Line Wr P2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>64.98999999999999</v>
+        <v>246.05</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1261,19 +1269,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152916401-jfa-k1200-completo-central-controle-distancia-cores-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1675001808-link-p-03-kits-controle-distancia-jfa-k1200-red-line-wr-p2-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1283,7 +1291,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Capa Controle Jfa K1200 - Atenção: Somente A Capa Preto</t>
+          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1292,11 +1300,11 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>34.99</v>
+        <v>141.55</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1311,14 +1319,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2065154427-capa-controle-jfa-k1200-atenco-somente-a-capa-preto-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1159018637-combo-jfa-controle-distancia-k1200-br-voltimetro-v12-slim-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1328,20 +1336,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Link P/ 03 Kits Controle Distancia Jfa K1200 Red Line Wr P2</t>
+          <t>Extensor Distancia Jfa K1200 - Somente Controle Sem Central</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>259</v>
+        <v>46.54</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1356,14 +1364,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1675001808-link-p-03-kits-controle-distancia-jfa-k1200-red-line-wr-p2-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1194705288-extensor-distancia-jfa-k1200-somente-controle-sem-central-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1373,22 +1381,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kit C /10 Unidades Jfa K600 Controle Distancia 12x S/ Juros</t>
+          <t>Jfa V12 - Voltimetro Medidor Bateria Digital Led Vermelho</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>720</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>56.99</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1401,14 +1405,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1256325591-kit-c-10-unidades-jfa-k600-controle-distancia-12x-s-juros-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1224908002-jfa-v12-voltimetro-medidor-bateria-digital-led-vermelho-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1418,7 +1422,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
+          <t>Jfa K1200 ( Central + Controle Distancia ) Completo Testado</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1427,11 +1431,11 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>78</v>
+        <v>61.74</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1446,14 +1450,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152918925-kit-controle-longa-distncia-jfa-k1200-preto-barato-brasil-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1147063031-jfa-k1200-central-controle-distancia-completo-testado-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1463,22 +1467,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>02 Kits Jfa K1200 - Branco E Azul - Controle Longa Distancia</t>
+          <t xml:space="preserve">Jfa Red Line - Somente O Controle Distancia Sem A Central </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>169</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>54.62</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1491,14 +1491,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1172418020-02-kits-jfa-k1200-branco-e-azul-controle-longa-distancia-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1920700932-jfa-red-line-somente-o-controle-distancia-sem-a-central-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1508,20 +1508,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Combo Jfa Controle Distancia K1200 Pr + Voltimetro V12 Slim</t>
+          <t>Jfa 120 A Fonte Carregador Bateria Digital Carga Inteligente</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>169.99</v>
+        <v>597.55</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1536,14 +1536,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1159018111-combo-jfa-controle-distancia-k1200-pr-voltimetro-v12-slim-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1177534831-jfa-120-a-fonte-carregador-bateria-digital-carga-inteligente-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
+          <t>Kit Jfa C/ Controle Distancia K1200 Br + Sequenciador Vs5hi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>199</v>
+        <v>169.23</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1581,14 +1581,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1154697200-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1239683463-kit-jfa-c-controle-distancia-k1200-br-sequenciador-vs5hi-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
+          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1607,11 +1607,11 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>48</v>
+        <v>189.05</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1621,19 +1621,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1440238835-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1154697200-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1643,16 +1643,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kit Jfa C/ Controle Distancia K1200 Br + Sequenciador Vs5hi</t>
+          <t>Kit C /10 Unidades Jfa K600 Controle Distancia 12x S/ Juros</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>199.1</v>
+        <v>684</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1671,14 +1671,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1239683463-kit-jfa-c-controle-distancia-k1200-br-sequenciador-vs5hi-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1256325591-kit-c-10-unidades-jfa-k600-controle-distancia-12x-s-juros-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jfa K1200 Vermelho Controle Longa Distancia + Barato Brasil</t>
+          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>71.48999999999999</v>
+        <v>170.05</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1716,14 +1716,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1158847048-jfa-k1200-vermelho-controle-longa-distancia-barato-brasil-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1154697535-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1733,16 +1733,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10 Controles Comando Distancia Jfa K600 - Central + Controle</t>
+          <t>02 Kits Jfa K1200 - Branco E Azul - Controle Longa Distancia</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>690</v>
+        <v>160.55</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1761,14 +1761,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1361838721-10-controles-comando-distancia-jfa-k600-central-controle-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1172418020-02-kits-jfa-k1200-branco-e-azul-controle-longa-distancia-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>54.5</v>
+        <v>51.77</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1806,14 +1806,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1369384767-jfa-k1200-venda-do-controle-de-mo-sem-central-reposico-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1369384767-jfa-k1200-venda-do-controle-de-mo-sem-central-reposico-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1823,20 +1823,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Jfa 36 A Slim - Fonte Carregador Bateria Sistema Inteligente</t>
+          <t>Combo Jfa - Controle Distancia K1200 Pr + Sequenciador Vs5hi</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>402.79</v>
+        <v>165.3</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1851,14 +1851,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1167027734-jfa-36-a-slim-fonte-carregador-bateria-sistema-inteligente-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1159011150-combo-jfa-controle-distancia-k1200-pr-sequenciador-vs5hi-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
+          <t>Jfa K1200 Branco - Controle Longa Distancia + Barato Brasil</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>179</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1896,14 +1896,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1154697535-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1356444534-jfa-k1200-branco-controle-longa-distancia-barato-brasil-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1913,16 +1913,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
+          <t>Jfa K600 - Controle Longa Distancia Completo 12x S/ Juros</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>71.48999999999999</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1936,19 +1936,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1158871477-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1152928649-jfa-k600-controle-longa-distancia-completo-12x-s-juros-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kit C/ 10 Controles Remoto Longa Distância Jfa K1200 Preto</t>
+          <t>Acgua Branco  - Controle Distancia Jfa K1200 Resistente Agua</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>650</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1986,14 +1986,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4601935518-kit-c-10-controles-remoto-longa-distncia-jfa-k1200-preto-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2747795862-acgua-branco-controle-distancia-jfa-k1200-resistente-agua-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia - Intem Abaixo</t>
+          <t>10 Controles Comando Distancia Jfa K600 - Central + Controle</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>73.90000000000001</v>
+        <v>655.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2031,14 +2031,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1742433623-jfa-k600-controle-longa-distancia-intem-abaixo-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1361838721-10-controles-comando-distancia-jfa-k600-central-controle-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2048,16 +2048,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
+          <t>Jfa K600 - Controle Longa Distancia - Intem Abaixo</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>179</v>
+        <v>70.2</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2076,14 +2076,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1158876809-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1742433623-jfa-k600-controle-longa-distancia-intem-abaixo-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2093,16 +2093,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo 12x S/ Juros</t>
+          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>77</v>
+        <v>170.05</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2116,19 +2116,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152928649-jfa-k600-controle-longa-distancia-completo-12x-s-juros-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1158876809-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2138,20 +2138,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jfa 200a - Fonte Carregador Bateria Estabilizada Inteligente</t>
+          <t>Jfa 120 A Fonte Carregador Bateria Digital Carga Inteligente</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>811</v>
+        <v>604.67</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2161,19 +2161,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1256339162-jfa-200a-fonte-carregador-bateria-estabilizada-inteligente-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1350922325-jfa-120-a-fonte-carregador-bateria-digital-carga-inteligente-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Combo Jfa Controle Distancia K1200 Ve + Voltimetro V12 Slim </t>
+          <t>Kit Jfa K1200 Azul Controle Longa Distancia + Barato Brasil</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>179</v>
+        <v>67.92</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2206,19 +2206,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1159003355-combo-jfa-controle-distancia-k1200-ve-voltimetro-v12-slim-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1158871477-kit-jfa-k1200-azul-controle-longa-distancia-barato-brasil-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2228,20 +2228,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Jfa 120 Storm - Fonte Carregador 12v Digital Carga Flutuante</t>
+          <t>Combo Jfa - Controle K1200 Acgua Preto + Voltímetro Vs5hi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>636.49</v>
+        <v>179.55</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2251,19 +2251,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3420366778-jfa-120-storm-fonte-carregador-12v-digital-carga-flutuante-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3239502071-combo-jfa-controle-k1200-acgua-preto-voltimetro-vs5hi-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Kit C/ 10 Unidades Jfa K1200 ( Central + Controle) Completo</t>
+          <t>Kit C/ 10 Controles Remoto Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>799</v>
+        <v>617.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2301,14 +2301,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1273340959-kit-c-10-unidades-jfa-k1200-central-controle-completo-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4601935518-kit-c-10-controles-remoto-longa-distncia-jfa-k1200-preto-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2318,18 +2318,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Jfa V12 - Voltimetro Medidor Bateria Digital Led Vermelho</t>
+          <t>Kit C/ 10 Unidades Jfa K1200 ( Central + Controle) Completo</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59.99</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
+        <v>759.05</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2337,19 +2341,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1224908002-jfa-v12-voltimetro-medidor-bateria-digital-led-vermelho-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1273340959-kit-c-10-unidades-jfa-k1200-central-controle-completo-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2359,7 +2363,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kit C/ 02 Capas Controle Jfa K1200 - 1 Vermelha + 1 Preta</t>
+          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2368,11 +2372,11 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>64.98999999999999</v>
+        <v>46.55</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2387,14 +2391,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2067187135-kit-c-02-capas-controle-jfa-k1200-1-vermelha-1-preta-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1533484989-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2404,16 +2408,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>08 Controle Jfa K600 - Controle Longa Distancia Comple</t>
+          <t>Central Jfa K1200 S/ Controle Distancia + Voltímetro Vs5hi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>550</v>
+        <v>117.8</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2432,14 +2436,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1272479594-08-controle-jfa-k600-controle-longa-distancia-comple-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1988690033-central-jfa-k1200-s-controle-distancia-voltimetro-vs5hi-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2449,7 +2453,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kit Longa Distancia Jfa K1200 (controle + Central) Testados</t>
+          <t xml:space="preserve">Combo Jfa Controle Distancia K1200 Ve + Voltimetro V12 Slim </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2458,7 +2462,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>68.48999999999999</v>
+        <v>170.05</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2472,19 +2476,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1254697439-kit-longa-distancia-jfa-k1200-controle-central-testados-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D80033ecf-596c-414b-8766-aedc49d60885</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1159003355-combo-jfa-controle-distancia-k1200-ve-voltimetro-v12-slim-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2494,7 +2498,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Central Jfa K1200 S/ Controle Distancia + Voltímetro Vs5hi</t>
+          <t>Kit C/ 02 Capas Controle Jfa K1200 - 1 Vermelha + 1 Preta</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2503,11 +2507,11 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>124</v>
+        <v>61.74</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2522,14 +2526,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1988690033-central-jfa-k1200-s-controle-distancia-voltimetro-vs5hi-_JM#position%3D1%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2067187135-kit-c-02-capas-controle-jfa-k1200-1-vermelha-1-preta-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2539,16 +2543,16 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
+          <t>Jfa 120 Storm - Fonte Carregador 12v Digital Carga Flutuante</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>49</v>
+        <v>604.67</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2562,19 +2566,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1533484989-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3420366778-jfa-120-storm-fonte-carregador-12v-digital-carga-flutuante-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2584,7 +2588,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo + Barato Brasil</t>
+          <t>08 Controle Jfa K600 - Controle Longa Distancia Comple</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2593,7 +2597,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>64.5</v>
+        <v>522.5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2612,14 +2616,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1152920468-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1272479594-08-controle-jfa-k600-controle-longa-distancia-comple-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2629,7 +2633,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle K1200 Acgua Preto + Voltímetro Vs5hi</t>
+          <t>Jfa K1200 Completo ( Central + Controle Distancia ) Cores</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2638,11 +2642,11 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>189</v>
+        <v>53.2</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2657,14 +2661,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3239502071-combo-jfa-controle-k1200-acgua-preto-voltimetro-vs5hi-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1152916401-jfa-k1200-completo-central-controle-distancia-cores-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2683,7 +2687,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>69</v>
+        <v>65.55</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2702,14 +2706,14 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1859845998-somente-a-central-p-controle-distancia-jfa-red-line-wr-p2-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1859845998-somente-a-central-p-controle-distancia-jfa-red-line-wr-p2-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2719,16 +2723,16 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Acgua Preto  - Controle Distancia Jfa K1200 Resistente Agua</t>
+          <t>Jfa 200a - Fonte Carregador Bateria Estabilizada Inteligente</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>66.63</v>
+        <v>845.41</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2742,19 +2746,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2747832913-acgua-preto-controle-distancia-jfa-k1200-resistente-agua-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1256337225-jfa-200a-fonte-carregador-bateria-estabilizada-inteligente-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2764,20 +2768,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Combo Jfa - Controle Distancia K1200 Pr + Sequenciador Vs5hi</t>
+          <t>Jfa 36 A Slim - Fonte Carregador Bateria Sistema Inteligente</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>174</v>
+        <v>382.65</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2792,14 +2796,14 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1159011150-combo-jfa-controle-distancia-k1200-pr-sequenciador-vs5hi-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1167027734-jfa-36-a-slim-fonte-carregador-bateria-sistema-inteligente-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2809,16 +2813,16 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jfa 200a - Fonte Carregador Bateria Estabilizada Inteligente</t>
+          <t>Processador C/ Bluetooth Px2 + Controle Distancia Jfa K1200</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>889.91</v>
+        <v>474.05</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2837,14 +2841,14 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1256337225-jfa-200a-fonte-carregador-bateria-estabilizada-inteligente-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1194695868-processador-c-bluetooth-px2-controle-distancia-jfa-k1200-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2854,7 +2858,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Processador C/ Bluetooth Px2 + Controle Distancia Jfa K1200</t>
+          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2863,11 +2867,11 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>499</v>
+        <v>36.1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2877,19 +2881,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1194695868-processador-c-bluetooth-px2-controle-distancia-jfa-k1200-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4588206548-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2899,22 +2903,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Apenas Central P/ Jfa K1200 Red Line Wr P2</t>
+          <t>Jfa V12 - Voltimetro Medidor Bateria Digital Led Vermelho</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>59.99</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>56.04</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2922,19 +2922,19 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1722189734-apenas-central-p-jfa-k1200-red-line-wr-p2-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1224911921-jfa-v12-voltimetro-medidor-bateria-digital-led-vermelho-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2944,20 +2944,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Kit C/ 10 Controles Remoto Distancia Jfa K1200 Acqua Preto</t>
+          <t>Jfa 60 A Slim Sci Fonte Carregador Bateria 12v Inteligente</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>649</v>
+        <v>412.3</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2972,14 +2972,14 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2747845461-kit-c-10-controles-remoto-distancia-jfa-k1200-acqua-preto-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1153596690-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2989,18 +2989,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Jfa V12 - Voltimetro Medidor Bateria Digital Led Vermelho</t>
+          <t>Central S/ Controle Distancia P/ Jfa K600 - Não Tem Contole</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58.99</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
+        <v>40.85</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3008,19 +3012,19 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1224911921-jfa-v12-voltimetro-medidor-bateria-digital-led-vermelho-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1402659031-central-s-controle-distancia-p-jfa-k600-no-tem-contole-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3039,7 +3043,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>499</v>
+        <v>474.05</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3058,14 +3062,14 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1194702370-processador-c-bluetooth-px2-controle-distancia-jfa-k1200-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1194702370-processador-c-bluetooth-px2-controle-distancia-jfa-k1200-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3075,16 +3079,16 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Jfa 60 A Slim Sci Fonte Carregador Bateria 12v Inteligente</t>
+          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>434</v>
+        <v>45.9</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3103,14 +3107,14 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1153596690-jfa-60-a-slim-sci-fonte-carregador-bateria-12v-inteligente-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1360699917-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3120,20 +3124,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Novidade Ml - Controle Distancia Jfa K1200 Red Line Wr P2</t>
+          <t>Kit C/ 10 Controles Remoto Distancia Jfa K1200 Acqua Preto</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>78.90000000000001</v>
+        <v>616.55</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3148,14 +3152,14 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1361839065-novidade-ml-controle-distancia-jfa-k1200-red-line-wr-p2-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2747845461-kit-c-10-controles-remoto-distancia-jfa-k1200-acqua-preto-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3165,20 +3169,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Jfa 120 A Fonte Carregador Bateria Digital Carga Inteligente</t>
+          <t>Combo Jfa Controle Distancia K1200 Br + Voltimetro V12 Slim</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>629</v>
+        <v>131.1</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3193,14 +3197,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1177534831-jfa-120-a-fonte-carregador-bateria-digital-carga-inteligente-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://www.mercadolivre.com.br/combo-jfa-controle-distancia-k1200-br-voltimetro-v12-slim/p/MLB29588437?pdp_filters=seller_id:188238136#wid=MLB4440508960&amp;sid=search&amp;searchVariation=MLB29588437&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3210,16 +3214,16 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Central S/ Controle Distancia P/ Jfa K600 - Não Tem Contole</t>
+          <t>Novidade Ml - Controle Distancia Jfa K1200 Red Line Wr P2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>49</v>
+        <v>74.95</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3238,14 +3242,14 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1402659031-central-s-controle-distancia-p-jfa-k600-no-tem-contole-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1361839065-novidade-ml-controle-distancia-jfa-k1200-red-line-wr-p2-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D95c08b62-442f-4664-9796-cab58a28de8f</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3255,20 +3259,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>54</v>
+        <v>256.5</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3283,14 +3287,14 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1360699917-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:188238136#wid=MLB4413159904&amp;sid=search&amp;searchVariation=MLB27999036&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3300,35 +3304,170 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Central S/ Controle Distancia P/ Jfa K1200 - Não Tem Contole</t>
+          <t>Kit 04 Controles Remoto Jfa K1200 Acqua - 2 Preto + 2 Branco</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38</v>
+        <v>242.24</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3660722939-kit-04-controles-remoto-jfa-k1200-acqua-2-preto-2-branco-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Kit Longa Distancia Jfa K1200 (controle + Central) Testados</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>56.05</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4588206548-central-s-controle-distancia-p-jfa-k1200-no-tem-contole-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D364c911f-af47-4e3f-bce1-f2d48120f084</t>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1254697439-kit-longa-distancia-jfa-k1200-controle-central-testados-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>61.86</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:188238136#wid=MLB4440550032&amp;sid=search&amp;searchVariation=MLB27685629&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=06293dc5-552f-40f7-9327-149ef08d2d96</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>banda som</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Kit Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1152918925-kit-controle-longa-distncia-jfa-k1200-preto-barato-brasil-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D06293dc5-552f-40f7-9327-149ef08d2d96</t>
         </is>
       </c>
     </row>
